--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81907.2639867887</v>
+        <v>74263.20213275835</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426642</v>
+        <v>10494200.71426641</v>
       </c>
     </row>
     <row r="9">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E8" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>30.70785528783187</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796773</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="X8" t="n">
-        <v>104.8891084057994</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>17.73413229591582</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="U9" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>104.8891084057994</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0839105424607</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>104.8891084057994</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616406</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>119.083910542461</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>91.32747982963552</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>342.8813756254755</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>126.4923371521802</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>104.0104447315763</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1488807209173</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.50583343253361</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>143.9310934407673</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>94.13208900787916</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>179.953398291169</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.0832367239146</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>149.5937310574109</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>11.96377639543496</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>54.31661462074911</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2092,10 +2092,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>315.17234332221</v>
+        <v>93.53818910684694</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>86.38976318987905</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>54.31661462074954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>126.1536952093192</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>149.6157531058527</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>2.573051550003911</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>49.34995949258636</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>156.1674052448249</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>189.6554371447631</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>82.68980382700953</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.086301293330829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>298.1262462299687</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -2952,22 +2952,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>104.852859635248</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>384.7147587462374</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>176.9631776198095</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>37.45521805736097</v>
       </c>
       <c r="D34" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>158.2581465945294</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -3325,13 +3325,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>234.7898989561971</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>33.91608582563937</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>214.5646102646778</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>238.8251416680678</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>315.1723433222098</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>93.47781416967008</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>38.26127782904777</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.7012890994293</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>246.8383659365008</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>58.23277272243453</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>114.2435844806795</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.1723433222105</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>164.1017117126583</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E46" t="n">
-        <v>93.00664472099429</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.8134911691148</v>
+        <v>160.8315268133897</v>
       </c>
       <c r="C8" t="n">
-        <v>129.8134911691148</v>
+        <v>160.8315268133897</v>
       </c>
       <c r="D8" t="n">
-        <v>129.8134911691148</v>
+        <v>40.5447484876715</v>
       </c>
       <c r="E8" t="n">
-        <v>9.52671284339686</v>
+        <v>40.5447484876715</v>
       </c>
       <c r="F8" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="G8" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="H8" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585568</v>
+        <v>23.57954741585571</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558026</v>
+        <v>55.41632306558035</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318068</v>
+        <v>103.1313969318071</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183093</v>
+        <v>162.3261653183096</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590928</v>
+        <v>228.1917507590933</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326576</v>
+        <v>295.1231102326583</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336418</v>
+        <v>358.3244950336426</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455663</v>
+        <v>412.2654147455672</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245005</v>
+        <v>452.7727990245016</v>
       </c>
       <c r="R8" t="n">
-        <v>476.335642169843</v>
+        <v>476.335642169844</v>
       </c>
       <c r="S8" t="n">
-        <v>476.335642169843</v>
+        <v>401.4050834648261</v>
       </c>
       <c r="T8" t="n">
-        <v>476.335642169843</v>
+        <v>401.4050834648261</v>
       </c>
       <c r="U8" t="n">
-        <v>476.335642169843</v>
+        <v>401.4050834648261</v>
       </c>
       <c r="V8" t="n">
-        <v>476.335642169843</v>
+        <v>281.1183051391079</v>
       </c>
       <c r="W8" t="n">
-        <v>476.335642169843</v>
+        <v>160.8315268133897</v>
       </c>
       <c r="X8" t="n">
-        <v>370.3870478205507</v>
+        <v>160.8315268133897</v>
       </c>
       <c r="Y8" t="n">
-        <v>250.1002694948327</v>
+        <v>160.8315268133897</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.52671284339686</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="C9" t="n">
-        <v>9.52671284339686</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="D9" t="n">
-        <v>9.52671284339686</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="E9" t="n">
-        <v>9.52671284339686</v>
+        <v>217.8488205730381</v>
       </c>
       <c r="F9" t="n">
-        <v>9.52671284339686</v>
+        <v>134.4649821891997</v>
       </c>
       <c r="G9" t="n">
-        <v>9.52671284339686</v>
+        <v>49.28466765965133</v>
       </c>
       <c r="H9" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="I9" t="n">
-        <v>16.4367847511468</v>
+        <v>42.50045791160444</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437503</v>
+        <v>160.3935293486408</v>
       </c>
       <c r="K9" t="n">
-        <v>67.8072276036909</v>
+        <v>192.8022067279568</v>
       </c>
       <c r="L9" t="n">
-        <v>185.700299040727</v>
+        <v>236.3796729436462</v>
       </c>
       <c r="M9" t="n">
-        <v>236.5531466981428</v>
+        <v>287.2325206010622</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7519179156796</v>
+        <v>339.431291818599</v>
       </c>
       <c r="O9" t="n">
-        <v>336.5035957220123</v>
+        <v>387.1829696249318</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425484</v>
+        <v>425.507900926794</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735235</v>
+        <v>451.1271025577691</v>
       </c>
       <c r="R9" t="n">
-        <v>476.335642169843</v>
+        <v>476.335642169844</v>
       </c>
       <c r="S9" t="n">
-        <v>476.335642169843</v>
+        <v>476.335642169844</v>
       </c>
       <c r="T9" t="n">
-        <v>476.335642169843</v>
+        <v>356.0488638441258</v>
       </c>
       <c r="U9" t="n">
-        <v>356.048863844125</v>
+        <v>356.0488638441258</v>
       </c>
       <c r="V9" t="n">
-        <v>235.7620855184071</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="W9" t="n">
-        <v>115.4753071926892</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="X9" t="n">
-        <v>9.52671284339686</v>
+        <v>235.7620855184076</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.52671284339686</v>
+        <v>235.7620855184076</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.7620855184071</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="C10" t="n">
-        <v>235.7620855184071</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="D10" t="n">
-        <v>235.7620855184071</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="E10" t="n">
-        <v>235.7620855184071</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="F10" t="n">
-        <v>115.4753071926892</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="G10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="H10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="I10" t="n">
-        <v>9.52671284339686</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011149</v>
+        <v>108.002400301115</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760668</v>
+        <v>225.8954717381514</v>
       </c>
       <c r="L10" t="n">
-        <v>152.5669021405239</v>
+        <v>250.9111875026086</v>
       </c>
       <c r="M10" t="n">
-        <v>178.9424669519789</v>
+        <v>288.5610142512601</v>
       </c>
       <c r="N10" t="n">
-        <v>204.6908797845035</v>
+        <v>314.3094270837848</v>
       </c>
       <c r="O10" t="n">
-        <v>322.5839512215396</v>
+        <v>338.0922538360033</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328069</v>
+        <v>358.4425707328077</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.335642169843</v>
+        <v>476.335642169844</v>
       </c>
       <c r="R10" t="n">
-        <v>476.335642169843</v>
+        <v>462.637027446446</v>
       </c>
       <c r="S10" t="n">
-        <v>476.335642169843</v>
+        <v>462.637027446446</v>
       </c>
       <c r="T10" t="n">
-        <v>476.335642169843</v>
+        <v>342.3502491207278</v>
       </c>
       <c r="U10" t="n">
-        <v>356.048863844125</v>
+        <v>222.0634707950096</v>
       </c>
       <c r="V10" t="n">
-        <v>235.7620855184071</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="W10" t="n">
-        <v>235.7620855184071</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="X10" t="n">
-        <v>235.7620855184071</v>
+        <v>9.526712843396881</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.7620855184071</v>
+        <v>9.526712843396881</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.327577447737</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C11" t="n">
-        <v>2013.98275358362</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>1008.254025238637</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>574.4792803969324</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
         <v>805.440802286702</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043084</v>
@@ -5123,7 +5123,7 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960905</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.6552262893761</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C13" t="n">
-        <v>299.0935147726011</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2155219741237</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180194</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5223,7 +5223,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
         <v>2215.901038951971</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>716.4307943255671</v>
+        <v>861.8157371950291</v>
       </c>
       <c r="C14" t="n">
         <v>716.4307943255671</v>
@@ -5272,58 +5272,58 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1696.401431380283</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>1696.401431380283</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715607</v>
+        <v>1288.115307679937</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.0944902899325</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C16" t="n">
-        <v>554.5327787731575</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E16" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>954.5141609758243</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.0944902899325</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.9281030050443</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="C17" t="n">
-        <v>316.9281030050443</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="D17" t="n">
-        <v>316.9281030050443</v>
+        <v>1059.953504827321</v>
       </c>
       <c r="E17" t="n">
-        <v>316.9281030050443</v>
+        <v>626.1787599856166</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>198.3113303948243</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867029</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>1122.013229783223</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X17" t="n">
-        <v>702.8707663625338</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y17" t="n">
-        <v>702.8707663625338</v>
+        <v>1495.863289652877</v>
       </c>
     </row>
     <row r="18">
@@ -5576,22 +5576,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,7 +5600,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>561.2164974914551</v>
       </c>
       <c r="C19" t="n">
-        <v>299.093514772602</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="D19" t="n">
-        <v>299.093514772602</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E19" t="n">
-        <v>299.093514772602</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>122.3864607343582</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>122.3864607343582</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,46 +5679,46 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>756.0122647025501</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1340.193340120865</v>
       </c>
       <c r="N19" t="n">
-        <v>1399.801244395024</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2305.46231015405</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2063.215086057457</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1784.8284541062</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1497.87294597663</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1225.846541562922</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>980.4547868963341</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>753.0351162104423</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895473</v>
@@ -5749,22 +5749,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1782.900983623584</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="W20" t="n">
-        <v>1782.900983623584</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.900983623584</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.900983623584</v>
+        <v>1754.536245353315</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987881</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5901,10 +5901,10 @@
         <v>266.8129992301227</v>
       </c>
       <c r="G22" t="n">
-        <v>102.0718188426411</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>102.0718188426411</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895473</v>
@@ -5916,16 +5916,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092375</v>
+        <v>554.1085916646773</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827552</v>
+        <v>1138.289667082992</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789086</v>
+        <v>1708.047382044526</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540313</v>
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1474.419173756937</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>1036.27670094036</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>1036.27670094036</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>602.5019560986552</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>174.634526507863</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>174.634526507863</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X23" t="n">
-        <v>2209.200554108492</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.200554108492</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,7 +6074,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
         <v>803.387703298788</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.2333208532364</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C25" t="n">
-        <v>393.6716093364613</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>326.783117436994</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M25" t="n">
-        <v>897.9345369632209</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N25" t="n">
-        <v>1467.692251924755</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O25" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2310.479133515832</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2068.231909419238</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1789.845277467981</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1502.889769338411</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1230.863364924703</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>985.4716102581153</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.0519395722235</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1344.758510807007</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V26" t="n">
-        <v>2168.756428816663</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W26" t="n">
-        <v>1763.900974227697</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X26" t="n">
-        <v>1344.758510807007</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="Y26" t="n">
-        <v>1344.758510807007</v>
+        <v>874.1756481082185</v>
       </c>
     </row>
     <row r="27">
@@ -6287,13 +6287,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.1113136517137</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C28" t="n">
-        <v>559.5496021349386</v>
+        <v>490.9121334915891</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>490.9121334915891</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>862.0820538119945</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M28" t="n">
-        <v>992.6864461505238</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N28" t="n">
-        <v>1120.185357954413</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O28" t="n">
         <v>1657.620488527957</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2234.109902217715</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1955.723270266458</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1668.767762136888</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W28" t="n">
-        <v>1396.74135772318</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>1151.349603056593</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.9299323707007</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2052.622535079674</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="C29" t="n">
-        <v>1614.480062263097</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="D29" t="n">
-        <v>1178.570277437541</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="E29" t="n">
-        <v>744.7955325958366</v>
+        <v>1017.568416780081</v>
       </c>
       <c r="F29" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U29" t="n">
-        <v>2060.790516184048</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V29" t="n">
-        <v>2060.790516184048</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W29" t="n">
-        <v>2060.790516184048</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="X29" t="n">
-        <v>2060.790516184048</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="Y29" t="n">
-        <v>2060.790516184048</v>
+        <v>1889.485634438362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J30" t="n">
-        <v>858.9930882810432</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K30" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L30" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S30" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T30" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U30" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V30" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
@@ -6627,13 +6627,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>862.0820538119935</v>
       </c>
       <c r="M31" t="n">
-        <v>1236.93553127931</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N31" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O31" t="n">
         <v>1657.620488527956</v>
@@ -6645,10 +6645,10 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T31" t="n">
         <v>2118.080353351143</v>
@@ -6657,16 +6657,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1346.991198798029</v>
+        <v>1532.8989903267</v>
       </c>
       <c r="C32" t="n">
-        <v>908.8487259814518</v>
+        <v>1532.8989903267</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>1532.8989903267</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X32" t="n">
-        <v>2181.576892983283</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y32" t="n">
-        <v>1773.290769282936</v>
+        <v>1532.8989903267</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>894.4683967363981</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>477.6707703898317</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5415720081296</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M34" t="n">
-        <v>897.9345369632205</v>
+        <v>732.1459643466588</v>
       </c>
       <c r="N34" t="n">
-        <v>1467.692251924755</v>
+        <v>1301.903679308193</v>
       </c>
       <c r="O34" t="n">
-        <v>2005.127382498298</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T34" t="n">
         <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>1086.287015455385</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>884.8517156860543</v>
+        <v>1470.343171017673</v>
       </c>
       <c r="C35" t="n">
-        <v>446.7092428694776</v>
+        <v>1470.343171017673</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>1034.433386192118</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F35" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2148.556325916849</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>1889.485634438363</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V35" t="n">
-        <v>1526.86868437219</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W35" t="n">
-        <v>1122.013229783223</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="X35" t="n">
-        <v>884.8517156860543</v>
+        <v>1470.343171017673</v>
       </c>
       <c r="Y35" t="n">
-        <v>884.8517156860543</v>
+        <v>1470.343171017673</v>
       </c>
     </row>
     <row r="36">
@@ -6998,22 +6998,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7022,7 +7022,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
         <v>803.387703298788</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2101.256885969251</v>
+        <v>1126.089232522486</v>
       </c>
       <c r="C38" t="n">
-        <v>1663.114413152674</v>
+        <v>687.9467597059097</v>
       </c>
       <c r="D38" t="n">
-        <v>1227.204628327118</v>
+        <v>687.9467597059097</v>
       </c>
       <c r="E38" t="n">
-        <v>793.4298834854135</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F38" t="n">
-        <v>365.5624538946212</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.256885969251</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.256885969251</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X38" t="n">
-        <v>2101.256885969251</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y38" t="n">
-        <v>2101.256885969251</v>
+        <v>1552.388803007394</v>
       </c>
     </row>
     <row r="39">
@@ -7232,22 +7232,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>896.8524940391952</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>724.2907825224202</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>558.4127897239429</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898316</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L40" t="n">
-        <v>862.082053811994</v>
+        <v>588.016025518682</v>
       </c>
       <c r="M40" t="n">
-        <v>992.6864461505235</v>
+        <v>718.6204178572116</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1288.378132818746</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2121.479004437153</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1843.092372485896</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1556.136864356327</v>
       </c>
       <c r="W40" t="n">
-        <v>1369.663919391674</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.272164725087</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y40" t="n">
-        <v>896.8524940391952</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1129.815670475325</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>1129.815670475325</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7408,7 +7408,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435808</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X41" t="n">
-        <v>1941.185114027048</v>
+        <v>1538.101794175671</v>
       </c>
       <c r="Y41" t="n">
-        <v>1941.185114027048</v>
+        <v>1129.815670475325</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
         <v>341.0245550495863</v>
@@ -7499,7 +7499,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.655226289377</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>471.655226289377</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>471.655226289377</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>356.2576662078826</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7572,19 +7572,19 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.751453776091</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>1150.35584611462</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.854757918509</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P43" t="n">
         <v>2105.896438675982</v>
@@ -7599,22 +7599,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083642</v>
+        <v>1151.112823771545</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1514.88554354214</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1076.743070725563</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>640.8332859000079</v>
       </c>
       <c r="E44" t="n">
         <v>475.073981139747</v>
@@ -7645,13 +7645,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867025</v>
@@ -7681,19 +7681,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V44" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X44" t="n">
-        <v>2101.256885969251</v>
+        <v>1941.185114027048</v>
       </c>
       <c r="Y44" t="n">
-        <v>2101.256885969251</v>
+        <v>1941.185114027048</v>
       </c>
     </row>
     <row r="45">
@@ -7785,19 +7785,19 @@
         <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>616.081764785142</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>450.2037719866647</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E46" t="n">
-        <v>356.2576662078826</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7812,13 +7812,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
         <v>2173.32015736263</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>99.9306120846547</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>75.06626790035033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>64.0675729481556</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.87628617753069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,25 +8613,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>99.33766198190355</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>11.3881433709056</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>95.06085321698757</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>15.66495213582112</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340652</v>
+        <v>104.8520877340655</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>141.4680432173438</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639881</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>68.57677528255624</v>
       </c>
       <c r="M19" t="n">
         <v>458.1582657371569</v>
@@ -9336,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>141.4680432173448</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042864</v>
+        <v>229.6216911390741</v>
       </c>
       <c r="M22" t="n">
         <v>458.158265737157</v>
@@ -9573,10 +9573,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>444.9969971592903</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>263.1722038422878</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10275,7 +10275,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10515,19 +10515,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>167.4632046631933</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>410.2461643801344</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464598</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>263.1722038422874</v>
+        <v>263.8716243249374</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>444.9969971592904</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>264.6463123855408</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>458.1582657371571</v>
@@ -11469,7 +11469,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.952664237598</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>312.4667764348389</v>
       </c>
       <c r="E8" t="n">
-        <v>310.353086850827</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>392.8809000070524</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796776</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23080,16 +23080,16 @@
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>239.9068700230507</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>281.722989500616</v>
       </c>
       <c r="X8" t="n">
-        <v>310.061930380683</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1193519208824</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23108,16 +23108,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>75.44507823039999</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656964</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
-        <v>128.0597233353587</v>
+        <v>8.975812792897671</v>
       </c>
       <c r="U9" t="n">
-        <v>55.4759336551874</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.0424322161599</v>
+        <v>78.04243221615963</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167718</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>48.42965299770943</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23190,10 +23190,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>55.85607295540059</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>58.87629393274223</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616408</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
-        <v>242.6944597176218</v>
+        <v>123.6105491751608</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577347</v>
+        <v>156.5554896577344</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058131</v>
+        <v>165.0020425058128</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>177.9786605399358</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>90.87967246293539</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>297.0964181427041</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.20876813891624</v>
       </c>
       <c r="E13" t="n">
-        <v>82.91154299085281</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>373.5307413475251</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>289.8299546476436</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23551,16 +23551,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.08712386261337</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>62.9844388287527</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.9533380561441</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>245.9139333499067</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>119.0568436190423</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>88.66565849005872</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>43.81843724330173</v>
+        <v>265.4525914586648</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>76.70400539372771</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>8.14771907736489</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>140.8706407322095</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>265.3352856806297</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>165.4873721617662</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>93.63231361822146</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>273.2695921484629</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>169.3353434207487</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>85.37061988476059</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>413.9502734867278</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>125.4625090649157</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>70.08712386261337</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>44.72223864705035</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24982,7 +24982,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>237.9878611666729</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.3808763442463</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>271.1788507987584</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>180.1611398302853</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>136.9200085759679</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>69.52134278359605</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>190.61185572522</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>80.33532108510775</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>146.3469376859574</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>231.0448625405236</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>265.3352856806295</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>184.7123210407991</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25687,7 +25687,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>131.6676598093627</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>53.81683923109064</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>106.8642314578482</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>265.3352856806295</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,7 +25930,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E46" t="n">
-        <v>75.05377899077583</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90598.176193137</v>
+        <v>90598.1761931372</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>400531.3851569433</v>
+        <v>400531.3851569432</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>400531.3851569434</v>
+        <v>400531.3851569433</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>400531.3851569435</v>
+        <v>400531.3851569432</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>400531.3851569433</v>
+        <v>400531.3851569434</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>400531.3851569435</v>
+        <v>400531.3851569434</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400531.3851569435</v>
+        <v>400531.3851569436</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>400531.3851569435</v>
+        <v>400531.3851569432</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>400531.3851569436</v>
+        <v>400531.3851569432</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>400531.3851569433</v>
+        <v>400531.3851569435</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>400531.3851569434</v>
+        <v>400531.3851569435</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36428.59575072092</v>
+        <v>36428.595750721</v>
       </c>
       <c r="E2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="F2" t="n">
         <v>165162.4498658582</v>
       </c>
       <c r="G2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="H2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="I2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="J2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="K2" t="n">
+        <v>165162.4498658582</v>
+      </c>
+      <c r="L2" t="n">
         <v>165162.4498658581</v>
       </c>
-      <c r="L2" t="n">
-        <v>165162.4498658582</v>
-      </c>
       <c r="M2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="N2" t="n">
         <v>165162.4498658582</v>
       </c>
       <c r="O2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="P2" t="n">
         <v>165162.4498658582</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730577</v>
+        <v>117708.467573058</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180444</v>
+        <v>439858.245018044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310193</v>
+        <v>30139.066003102</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5701.383234911877</v>
+        <v>5701.383234911888</v>
       </c>
       <c r="E4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="F4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="G4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="H4" t="n">
         <v>15620.1048454346</v>
@@ -26444,13 +26444,13 @@
         <v>15620.10484543461</v>
       </c>
       <c r="K4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="L4" t="n">
         <v>15620.1048454346</v>
       </c>
       <c r="M4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="N4" t="n">
         <v>15620.10484543461</v>
@@ -26459,7 +26459,7 @@
         <v>15620.10484543461</v>
       </c>
       <c r="P4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
     </row>
     <row r="5">
@@ -26475,37 +26475,37 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239235</v>
+        <v>42922.56227239237</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-129903.817329641</v>
+        <v>-131070.7161257924</v>
       </c>
       <c r="E6" t="n">
-        <v>-336366.9812072586</v>
+        <v>-336920.8616504803</v>
       </c>
       <c r="F6" t="n">
-        <v>103491.2638107858</v>
+        <v>102937.3833675638</v>
       </c>
       <c r="G6" t="n">
-        <v>103491.2638107858</v>
+        <v>102937.3833675638</v>
       </c>
       <c r="H6" t="n">
-        <v>103491.2638107857</v>
+        <v>102937.3833675638</v>
       </c>
       <c r="I6" t="n">
-        <v>103491.2638107857</v>
+        <v>102937.3833675638</v>
       </c>
       <c r="J6" t="n">
-        <v>103491.2638107857</v>
+        <v>102937.3833675637</v>
       </c>
       <c r="K6" t="n">
-        <v>103491.2638107857</v>
+        <v>102937.3833675638</v>
       </c>
       <c r="L6" t="n">
-        <v>73352.1978076838</v>
+        <v>72798.31736446173</v>
       </c>
       <c r="M6" t="n">
-        <v>-13883.31774896232</v>
+        <v>-14437.19819218413</v>
       </c>
       <c r="N6" t="n">
-        <v>103491.2638107857</v>
+        <v>102937.3833675638</v>
       </c>
       <c r="O6" t="n">
-        <v>103491.2638107857</v>
+        <v>102937.3833675638</v>
       </c>
       <c r="P6" t="n">
-        <v>103491.2638107857</v>
+        <v>102937.3833675638</v>
       </c>
     </row>
   </sheetData>
@@ -26743,34 +26743,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748046</v>
+        <v>94.25048217480483</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
         <v>466.7019280932212</v>
@@ -26795,37 +26795,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748046</v>
+        <v>94.25048217480483</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184165</v>
+        <v>372.4514459184163</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194734</v>
+        <v>470.997983819473</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194734</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194734</v>
+        <v>470.997983819473</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.378896410752983</v>
+        <v>0.378896410752984</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623989</v>
+        <v>3.880372866623998</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555439</v>
+        <v>14.60740387555443</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214603</v>
+        <v>32.1583592421461</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931981</v>
+        <v>48.19704430931992</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990142</v>
+        <v>59.79269533990157</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462978</v>
+        <v>66.53089438462995</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116817</v>
+        <v>67.60743381168186</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725672</v>
+        <v>63.83978262725687</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679244</v>
+        <v>54.48577748679258</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670122</v>
+        <v>40.91654977670132</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196209</v>
+        <v>23.80085166196215</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033609</v>
+        <v>8.634101960033631</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071184</v>
+        <v>1.658619038071188</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023864</v>
+        <v>0.03031171286023871</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250514</v>
+        <v>0.2027274522250519</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857734</v>
+        <v>1.957920393857739</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888832</v>
+        <v>6.979870613888849</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780629</v>
+        <v>19.15329845780633</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688473</v>
+        <v>32.73603775688481</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421104</v>
+        <v>44.01764264211051</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852685</v>
+        <v>51.36651278526863</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286546</v>
+        <v>52.72603153286558</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619458</v>
+        <v>48.23401798619469</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006267</v>
+        <v>38.71205182006277</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542937</v>
+        <v>25.87798144542943</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5868851477975</v>
+        <v>12.58688514779753</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531106</v>
+        <v>3.765573509531115</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457113</v>
+        <v>0.8171338973457133</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322707</v>
+        <v>0.0133373323832271</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889919</v>
+        <v>0.1699598858889923</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540311</v>
+        <v>1.511097894540314</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643503</v>
+        <v>5.111157295643515</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235173</v>
+        <v>12.01616393235176</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055742</v>
+        <v>19.74624856055746</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207794</v>
+        <v>25.268399762078</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803533</v>
+        <v>26.6419846580354</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063093</v>
+        <v>26.008497810631</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547315</v>
+        <v>24.02305732547321</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5558756533377</v>
+        <v>20.55587565333775</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839549</v>
+        <v>14.23182280839553</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517761</v>
+        <v>7.642014505517779</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083612</v>
+        <v>2.961937284083619</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075106</v>
+        <v>0.7261922397075123</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308659</v>
+        <v>0.009270539230308681</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32797,28 +32797,28 @@
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -35169,31 +35169,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.194782396423</v>
+        <v>14.19478239642303</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214605</v>
+        <v>32.1583592421461</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931978</v>
+        <v>48.19704430931992</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990148</v>
+        <v>59.79269533990157</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462976</v>
+        <v>66.53089438462996</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168169</v>
+        <v>67.60743381168186</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725674</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679247</v>
+        <v>54.48577748679259</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670117</v>
+        <v>40.91654977670134</v>
       </c>
       <c r="R8" t="n">
         <v>23.8008516619621</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888833</v>
+        <v>33.30681320020965</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780629</v>
+        <v>119.083910542461</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688473</v>
+        <v>32.7360377568848</v>
       </c>
       <c r="L9" t="n">
-        <v>119.0839105424607</v>
+        <v>44.0176426421105</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852685</v>
+        <v>51.36651278526864</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286545</v>
+        <v>52.72603153286559</v>
       </c>
       <c r="O9" t="n">
-        <v>48.2340179861946</v>
+        <v>48.23401798619471</v>
       </c>
       <c r="P9" t="n">
-        <v>102.7796247682183</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542938</v>
+        <v>25.87798144542944</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779749</v>
+        <v>25.46317132532823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.4703913714324</v>
+        <v>99.47039137143241</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055742</v>
+        <v>119.083910542461</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207793</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803534</v>
+        <v>38.03012802894096</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063093</v>
+        <v>26.00849781063101</v>
       </c>
       <c r="O10" t="n">
-        <v>119.0839105424607</v>
+        <v>24.02305732547319</v>
       </c>
       <c r="P10" t="n">
-        <v>36.22082778915882</v>
+        <v>20.55587565333775</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424607</v>
+        <v>119.083910542461</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35573,22 +35573,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221537</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
@@ -35658,13 +35658,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>81.10166275847541</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,13 +35898,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35971,7 +35971,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>193.6987971192208</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>260.4234789221546</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36135,7 +36135,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>281.852445040951</v>
+        <v>354.7437129757387</v>
       </c>
       <c r="M22" t="n">
         <v>590.0818943619341</v>
@@ -36293,10 +36293,10 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36445,7 +36445,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>576.9206257840676</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36676,10 +36676,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>388.2942256789524</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
@@ -36767,7 +36767,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485103</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36928,13 +36928,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>300.8399982398709</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
@@ -37004,16 +37004,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,19 +37077,19 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37165,13 +37165,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
-        <v>299.3868332879706</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561043</v>
+        <v>529.2016000849442</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -37311,7 +37311,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37393,7 +37393,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>296.1475206512696</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,16 +37551,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>388.294225678952</v>
+        <v>388.993646161602</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37721,7 +37721,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37861,16 +37861,16 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37940,22 +37940,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>576.9206257840676</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O43" t="n">
-        <v>383.6017480903506</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>240.36368292423</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38180,7 +38180,7 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
         <v>590.0818943619342</v>
@@ -38189,7 +38189,7 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
